--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288301.395682056</v>
+        <v>1280407.9795629</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8078410.590648622</v>
+        <v>8307507.119500955</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10597037.18428935</v>
+        <v>10579414.37437763</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>24.60209941965265</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>39.22879305694475</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>16.77840076253188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>128.8382509449108</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>115.409956236188</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>413.0742830729243</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>316.6526430594761</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>51.980827552402</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>9.885966585627131</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.2391639843673</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>213.3407902433537</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.1511889208523</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>100.7200635800357</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>48.34498064741082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>26.12889292972793</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>149.5361969530151</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.3588091565439</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8629394334512</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.68689837041121</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>2.458508834204963</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2645052867368</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>96.47517953685669</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.3902575986303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>259.5260115130741</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>45.68319308672169</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>90.88573882155671</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>212.1707954295638</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>67.88571179025759</v>
       </c>
       <c r="T11" t="n">
-        <v>201.6622187863186</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1607,25 +1607,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>136.7255776522286</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>140.156318876623</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.2419515106227</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>17.35112070699533</v>
       </c>
       <c r="X17" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>138.7178665021164</v>
       </c>
     </row>
     <row r="20">
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>11.61592966729513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>24.25490327103038</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>167.8621994221799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2965,7 +2965,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2998,25 +2998,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>7.785128219329717</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>11.61592966729513</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>42.86209348694648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>106.5867442799594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,7 +3676,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3712,10 +3712,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>42.8236190251899</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>161.5073577626377</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3983,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>259.2908938088645</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.0545280582602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>19.44061250282583</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>111.724476592811</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2672.298485543826</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2496.120997857996</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="T2" t="n">
-        <v>2496.120997857996</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="U2" t="n">
-        <v>2496.120997857996</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="V2" t="n">
-        <v>2496.120997857996</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W2" t="n">
-        <v>2496.120997857996</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X2" t="n">
-        <v>2122.655239596916</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>70.89086137847747</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>229.739153672332</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2070.717079250664</v>
+        <v>1254.532678210782</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1254.532678210782</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1254.532678210782</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1254.532678210782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>843.546773421175</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>426.3000228424635</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.4488682369321</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>61.95344870138587</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>337.6584151664002</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>865.8844228963437</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1470.244180224332</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>2069.751112718748</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2590.660871227436</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2678.990194444102</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2687.163266184255</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2527.325726806107</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2311.829979085547</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2311.829979085547</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1980.767091741976</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1627.998436471862</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1254.532678210782</v>
       </c>
       <c r="Y5" t="n">
-        <v>2070.717079250664</v>
+        <v>1254.532678210782</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>971.199638941615</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>796.746609660488</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>647.8121999992368</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>488.5747449937813</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>342.0401870206663</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>204.5137335652599</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>102.7762956056279</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>164.7262390475209</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>480.6933140611387</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>693.210810870865</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1312.633825731404</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1489.609187431935</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2019.210969329848</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2427.260022143372</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2647.332238349426</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2620.939417208286</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2469.892753619382</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2272.560623158226</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2044.416239892114</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1809.264131660371</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1555.02677493217</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1347.175274726637</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1139.414975961683</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>374.8887737751046</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>374.8887737751046</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>224.7721343627689</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.85904078037578</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.85904078037578</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.85904078037578</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.85904078037578</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.85904078037578</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>146.8710908031931</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>321.313510876044</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>515.627707305283</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>710.756162878872</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>874.9725785423127</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>991.9674091759487</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>989.4840669191759</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>989.4840669191759</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>989.4840669191759</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>989.4840669191759</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>700.3280009729772</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>602.8783246731219</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>602.8783246731219</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>374.8887737751046</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>374.8887737751046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2326.134191782762</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="C8" t="n">
-        <v>2063.986705405919</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,16 +4808,16 @@
         <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>617.9730006750465</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1249.690811658358</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1876.998479718205</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2047.167505035164</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2651.004451536685</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2651.004451536685</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2397.312748281836</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2397.312748281836</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.134191782762</v>
+        <v>2044.544093011722</v>
       </c>
       <c r="X8" t="n">
-        <v>2326.134191782762</v>
+        <v>2044.544093011722</v>
       </c>
       <c r="Y8" t="n">
-        <v>2326.134191782762</v>
+        <v>1654.40476103591</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2592.127727123976</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.64548247418</v>
+        <v>293.6598519901886</v>
       </c>
       <c r="C10" t="n">
-        <v>332.7092995462731</v>
+        <v>293.6598519901886</v>
       </c>
       <c r="D10" t="n">
-        <v>332.7092995462731</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>332.7092995462731</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>332.7092995462731</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>501.64548247418</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>501.64548247418</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="W10" t="n">
-        <v>501.64548247418</v>
+        <v>475.3083168204283</v>
       </c>
       <c r="X10" t="n">
-        <v>501.64548247418</v>
+        <v>475.3083168204283</v>
       </c>
       <c r="Y10" t="n">
-        <v>501.64548247418</v>
+        <v>475.3083168204283</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3257.034395558405</v>
       </c>
       <c r="T11" t="n">
-        <v>3121.906610713899</v>
+        <v>3051.056647942627</v>
       </c>
       <c r="U11" t="n">
-        <v>3121.906610713899</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="V11" t="n">
-        <v>3121.906610713899</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W11" t="n">
-        <v>3121.906610713899</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5188,13 +5188,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1384.829779622645</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C14" t="n">
-        <v>1015.867262682233</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="D14" t="n">
-        <v>657.6015640754824</v>
+        <v>1004.858313089351</v>
       </c>
       <c r="E14" t="n">
-        <v>519.4949199823222</v>
+        <v>619.0700604911071</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>208.0841557014996</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.034709923658</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X14" t="n">
-        <v>2161.568951662578</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y14" t="n">
-        <v>1771.429619686766</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5467,19 +5467,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>1424.011591242373</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.011591242373</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,40 +5525,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>533.4780323548191</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C19" t="n">
-        <v>364.5418494269122</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D19" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5698,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1708.010285469454</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1453.325797263567</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.908627226606</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X19" t="n">
-        <v>935.919076328589</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.1264971850588</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5756,46 +5756,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>3942.370854773036</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>3773.434671845129</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>4572.801449644822</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>4572.801449644822</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>4572.801449644822</v>
       </c>
       <c r="V22" t="n">
-        <v>1956.343466104704</v>
+        <v>4572.801449644822</v>
       </c>
       <c r="W22" t="n">
-        <v>1751.093193329805</v>
+        <v>4572.801449644822</v>
       </c>
       <c r="X22" t="n">
-        <v>1523.103642431788</v>
+        <v>4344.811898746805</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.311063288258</v>
+        <v>4124.019319603275</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3515.905934867957</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>4018.878405747294</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4413.652772104471</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4661.939133860154</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>963.4596778203087</v>
+        <v>508.7128420558663</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1428.560606964614</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1428.560606964614</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861856</v>
+        <v>1139.143436927654</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.252256963839</v>
+        <v>911.1538860296362</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4596778203087</v>
+        <v>690.361306886106</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,19 +6227,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3379.775168468997</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C28" t="n">
-        <v>3379.775168468997</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D28" t="n">
-        <v>3379.775168468997</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E28" t="n">
-        <v>3231.862074886603</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F28" t="n">
-        <v>3084.972127388693</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G28" t="n">
         <v>2917.269290763412</v>
@@ -6421,13 +6421,13 @@
         <v>3730.981410493358</v>
       </c>
       <c r="W28" t="n">
-        <v>3561.423633299236</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X28" t="n">
-        <v>3561.423633299236</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y28" t="n">
-        <v>3561.423633299236</v>
+        <v>2992.78211041485</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6467,46 +6467,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3796.153667990893</v>
+        <v>3942.370854773036</v>
       </c>
       <c r="C31" t="n">
-        <v>3627.217485062986</v>
+        <v>3773.434671845129</v>
       </c>
       <c r="D31" t="n">
-        <v>3477.10084565065</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="E31" t="n">
-        <v>3329.187752068257</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F31" t="n">
-        <v>3182.297804570347</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945065</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004074</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.7687655736</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="U31" t="n">
-        <v>3985.665898699243</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="V31" t="n">
-        <v>3977.802132821133</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="W31" t="n">
-        <v>3977.802132821133</v>
+        <v>4572.801449644822</v>
       </c>
       <c r="X31" t="n">
-        <v>3977.802132821133</v>
+        <v>4344.811898746805</v>
       </c>
       <c r="Y31" t="n">
-        <v>3977.802132821133</v>
+        <v>4124.019319603275</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L32" t="n">
-        <v>1404.50704106094</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M32" t="n">
-        <v>2383.057343890768</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>3362.809616117415</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996752</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3942.370854773035</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C34" t="n">
-        <v>3773.434671845128</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D34" t="n">
-        <v>3623.318032432792</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.404938850399</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352489</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.05172241972</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T34" t="n">
-        <v>4778.05172241972</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U34" t="n">
-        <v>4778.05172241972</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V34" t="n">
-        <v>4778.05172241972</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W34" t="n">
-        <v>4572.801449644821</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X34" t="n">
-        <v>4344.811898746804</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y34" t="n">
-        <v>4124.019319603274</v>
+        <v>2992.78211041485</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3942.370854773035</v>
+        <v>963.4596778203087</v>
       </c>
       <c r="C37" t="n">
-        <v>3773.434671845128</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D37" t="n">
-        <v>3623.318032432792</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E37" t="n">
-        <v>3475.404938850399</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>3328.514991352489</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727208</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V37" t="n">
-        <v>3942.370854773035</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W37" t="n">
-        <v>3942.370854773035</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X37" t="n">
-        <v>3942.370854773035</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y37" t="n">
-        <v>3942.370854773035</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7151,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2915.526830679739</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3795.491481009194</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>909.2731541783409</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C40" t="n">
-        <v>909.2731541783409</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7360,22 +7360,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W40" t="n">
-        <v>909.2731541783409</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="X40" t="n">
-        <v>909.2731541783409</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.2731541783409</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7521,7 +7521,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.4168978689405</v>
+        <v>3789.893669780147</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>3620.95748685224</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>3470.840847439904</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>3470.840847439904</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>3323.950899941994</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="U43" t="n">
-        <v>1883.949150983575</v>
+        <v>4488.948855545364</v>
       </c>
       <c r="V43" t="n">
-        <v>1629.264662777688</v>
+        <v>4488.948855545364</v>
       </c>
       <c r="W43" t="n">
-        <v>1339.847492740728</v>
+        <v>4199.531685508404</v>
       </c>
       <c r="X43" t="n">
-        <v>1111.85794184271</v>
+        <v>3971.542134610387</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.0653626991802</v>
+        <v>3971.542134610387</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1594.601034732593</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C44" t="n">
-        <v>1225.638517792182</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D44" t="n">
-        <v>867.3728191854311</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E44" t="n">
-        <v>481.5845665871869</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>743.4945603335148</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>328.4221101785112</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7670,28 +7670,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X44" t="n">
-        <v>2182.266054653544</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y44" t="n">
-        <v>1981.200874796715</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2043.619166450419</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="C46" t="n">
-        <v>1874.682983522512</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D46" t="n">
-        <v>1724.566344110176</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E46" t="n">
-        <v>1611.713337450771</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>3036.502954734814</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>2781.818466528927</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>2492.401296491966</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>2264.411745593949</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y46" t="n">
-        <v>2043.619166450419</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>215.1119544077879</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>94.33163359454483</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>63.64207105006795</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>297.0417171299301</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>21.63976862165693</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.67224444723641</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,10 +9887,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>226.7688596193111</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,13 +10124,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.253057640025</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L32" t="n">
-        <v>14.4538689594055</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.61882225792002</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,22 +10823,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>283.315602768549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>41.30204999791825</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25575135330152</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>245.2047924200332</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>270.7654067768304</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.34270184147212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23792,10 +23792,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>331.8898480104177</v>
       </c>
       <c r="X17" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,16 +23938,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>79.86678684997841</v>
       </c>
     </row>
     <row r="20">
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795433958</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>155.6308914313327</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>261.9569349345825</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>118.6607989144111</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>244.3525151044983</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594887</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>155.6308914313327</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>209.2755498368815</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>42.02872873825298</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>182.8860363638473</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>4.518450496390528</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>35.31687057845596</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25916,10 +25916,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>187.1834105977933</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>160.3913676791115</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>34.70948605375814</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1015061.31162634</v>
+        <v>996733.5893181538</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789172.8793532163</v>
+        <v>789172.8793532164</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941057.035263277</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789172.8793532163</v>
+        <v>789172.8793532165</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
         <v>409196.5187651048</v>
@@ -26326,13 +26326,13 @@
         <v>409196.5187651048</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="H2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="I2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="J2" t="n">
         <v>476498.1442643797</v>
@@ -26344,16 +26344,16 @@
         <v>476498.1442643799</v>
       </c>
       <c r="M2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="N2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="O2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160798.0880331137</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>33526.94480538864</v>
       </c>
       <c r="E3" t="n">
         <v>445640.2295734512</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254663</v>
+        <v>39153.48277254666</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404877</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>182373.4147842677</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136391</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>86708.61750997545</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388028.4495998718</v>
+        <v>-390124.3108224175</v>
       </c>
       <c r="C6" t="n">
-        <v>201939.4296146726</v>
+        <v>62744.94159121328</v>
       </c>
       <c r="D6" t="n">
-        <v>45473.38725842931</v>
+        <v>195269.0960410555</v>
       </c>
       <c r="E6" t="n">
-        <v>-116106.528477876</v>
+        <v>-116250.8467167449</v>
       </c>
       <c r="F6" t="n">
-        <v>329533.7010955751</v>
+        <v>329389.3828567062</v>
       </c>
       <c r="G6" t="n">
-        <v>329533.701095575</v>
+        <v>329389.3828567062</v>
       </c>
       <c r="H6" t="n">
-        <v>254403.3398955211</v>
+        <v>253582.0426448221</v>
       </c>
       <c r="I6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577703</v>
       </c>
       <c r="J6" t="n">
-        <v>175950.8647158764</v>
+        <v>175129.5674651773</v>
       </c>
       <c r="K6" t="n">
-        <v>352374.0839084694</v>
+        <v>351552.7866577703</v>
       </c>
       <c r="L6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="M6" t="n">
-        <v>313220.6011359228</v>
+        <v>312399.3038852238</v>
       </c>
       <c r="N6" t="n">
-        <v>352374.0839084694</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="O6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="P6" t="n">
-        <v>329533.701095575</v>
+        <v>329389.3828567062</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>554.32804249993</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26829,7 +26829,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26960,10 +26960,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>176.5843782828433</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>39.1480578381351</v>
       </c>
       <c r="E3" t="n">
         <v>496.3006002552332</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.114182647737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.114182647737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.114182647737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29.87630315515906</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>135.1869197520268</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,10 +27436,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>150.531401496519</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>157.6847473916802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>249.8629355348195</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>72.58257213467303</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1673765524596</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9913714129671</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>153.3397491375227</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>125.3895378028358</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.3473832098801</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>206.59615775054</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.6745372975443</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>155.6624637869713</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.19439575346445</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7468802579334</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>108.9696940414185</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>57.72973419665564</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>74.08985922853321</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.228454442210772</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>22.82215905629108</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>85.91248988333088</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>189.1372852145867</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>283.4677617533687</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>351.6668243891767</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>391.2971010758425</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>397.628697259774</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>375.4695034000405</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>320.4545343579621</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>240.6480096462887</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>139.9831513555226</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>50.78090560187803</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>9.75505932077766</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1782763553768617</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.19232824235834</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>11.51538065646081</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>41.05165220400426</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>112.6488713536886</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>192.5348635916974</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>258.886884376972</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>302.1087831624618</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>310.1047037000316</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>283.6852200140916</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>227.6823991920939</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>152.1996542350751</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>74.02894122291521</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>22.14697415082266</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>4.805919538277694</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.07844264752357503</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.999607945491677</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>8.887423369916917</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>30.06093712442244</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>70.67228174626156</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>116.1362685762148</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>148.6144394597353</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>156.6930891282998</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>152.9672776951037</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>141.2900394227691</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>120.8980373347388</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>83.70353441748942</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>44.94600816728939</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>17.42044028643222</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.271052130737164</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05452406975409153</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>8.091380687900426</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>278.4898651161761</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>533.5616239696399</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>610.4644013414023</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>605.5625580751672</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>526.1714732410992</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>89.22153860269253</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>18.34231977183921</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>111.9022800274308</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>319.158661629917</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>214.6641381916427</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>625.6798129904435</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>178.7629916166983</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>534.9512948463766</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>412.1707604177009</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>222.2951678849027</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>93.86677675033195</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>176.2044647200515</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>196.2769660901404</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>197.0994500743323</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>165.8751673368087</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>118.1765965996323</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>252.2273365302777</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>408.8945709173307</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.60637589638116</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>117.2854429894612</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,10 +36607,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>625.5308458386829</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,13 +36844,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>384.0473624437445</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37069,10 +37069,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L32" t="n">
-        <v>470.0439833517377</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37087,10 +37087,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>89.2320208001448</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>682.0775889879209</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
